--- a/public/DataUpload/users-FE-2.xlsx
+++ b/public/DataUpload/users-FE-2.xlsx
@@ -146,7 +146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -156,6 +156,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -179,10 +183,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.47"/>
@@ -252,7 +256,7 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">

--- a/public/DataUpload/users-FE-2.xlsx
+++ b/public/DataUpload/users-FE-2.xlsx
@@ -34,37 +34,37 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">Ms. Mable Rau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sipes.eduardo@example.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percival Runte Jr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">djakubowski@example.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof. Scot Labadie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nienow.jane@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enrique Updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rene57@example.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Marian Altenwerth I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naomi15@example.net</t>
+    <t xml:space="preserve">Filiberto Christiansen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pleannon@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Jovany Daugherty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jacobi.rodrigo@example.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Wilford Rempel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isabel73@example.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Damaris Luettgen MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randi.breitenberg@example.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Federico Cole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roy.krajcik@example.net</t>
   </si>
 </sst>
 </file>
@@ -155,11 +155,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,97 +183,97 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="22.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
